--- a/medicine/Enfance/Georges_Glatz/Georges_Glatz.xlsx
+++ b/medicine/Enfance/Georges_Glatz/Georges_Glatz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Georges Glatz, né le 10 septembre 1946, est un ancien journaliste, une personnalité politique vaudoise du Parti démocrate-chrétien et un militant des droits de l'enfant au sein de l'association qu'il a fondée, le Comité International pour la Dignité de l'Enfant. Il a été membre des conseils de Terre des Hommes et du Comité international contre la piraterie en mer de Chine.
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est d'abord journaliste à la Radio suisse romande, pour laquelle il reçoit plusieurs prix internationaux[1],  puis à Temps présent[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est d'abord journaliste à la Radio suisse romande, pour laquelle il reçoit plusieurs prix internationaux,  puis à Temps présent,.
 Il fonde et préside l'association le Comité International pour la Dignité de l'Enfant (CIDE).
 En 1992 il devient délégué cantonal à l'enfance maltraitée grâce à la réputation qu'il a acquise dans le domaine.
 En 1998 il est élu au Grand Conseil du canton de Vaud.
 Il a été conseiller municipal de la ville de Lausanne.
-Dans le cadre de son activité au sein du CIDE, il a participé à l'émission de télévision Viols d'enfants : la fin du silence ? où il a confirmé avoir entendu dire qu'il y avait « en France, des sacrifices et de charniers d'enfants ». Il a depuis été invité à prendre la parole sur les sujets touchant à la pédo-criminalité et à la dignité de l'enfant dans les médias[4].
-Vers 2002, le Comité International pour la Dignité de l'Enfant a servi à une trentaine de femmes de France à se soustraire à la justice française qui les poursuit pour non-présentation d'enfant à des pères qu'elles accusent de pédophilie[5]. L'affaire engendre des tensions politiques entre la France et la Suisse, elle contribue à la mise à l'écart de Georges Glatz du Service de protection de la jeunesse du canton de Vaud où il était directeur adjoint[3], et vaut à Georges Glatz une inculpation de complicité d'enlèvement de personnes de moins de 16 ans[6]. Il est acquitté[7] de cette inculpation par le Tribunal de police d'Yverdon le 22 octobre 2004.
+Dans le cadre de son activité au sein du CIDE, il a participé à l'émission de télévision Viols d'enfants : la fin du silence ? où il a confirmé avoir entendu dire qu'il y avait « en France, des sacrifices et de charniers d'enfants ». Il a depuis été invité à prendre la parole sur les sujets touchant à la pédo-criminalité et à la dignité de l'enfant dans les médias.
+Vers 2002, le Comité International pour la Dignité de l'Enfant a servi à une trentaine de femmes de France à se soustraire à la justice française qui les poursuit pour non-présentation d'enfant à des pères qu'elles accusent de pédophilie. L'affaire engendre des tensions politiques entre la France et la Suisse, elle contribue à la mise à l'écart de Georges Glatz du Service de protection de la jeunesse du canton de Vaud où il était directeur adjoint, et vaut à Georges Glatz une inculpation de complicité d'enlèvement de personnes de moins de 16 ans. Il est acquitté de cette inculpation par le Tribunal de police d'Yverdon le 22 octobre 2004.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Photographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Glatz a également ramené de ses nombreux voyages (Inde, Vietnam, Cambodge, Tchad, …) des photos marquantes de drames dont il a été témoin, qui ont été publiées par la presse. En 2006, il choisit de consacrer une grande partie de son temps à la photographie. Pendant une dizaine d'années une série d'expositions présentent son travail au public[8] et un ouvrage est publié en 2015[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Glatz a également ramené de ses nombreux voyages (Inde, Vietnam, Cambodge, Tchad, …) des photos marquantes de drames dont il a été témoin, qui ont été publiées par la presse. En 2006, il choisit de consacrer une grande partie de son temps à la photographie. Pendant une dizaine d'années une série d'expositions présentent son travail au public et un ouvrage est publié en 2015.
 </t>
         </is>
       </c>
